--- a/BPM PROJECT/SchedLookV1/ScheduleLookUpProject.xlsx
+++ b/BPM PROJECT/SchedLookV1/ScheduleLookUpProject.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Project Defined" sheetId="1" r:id="rId1"/>
@@ -767,39 +767,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="9930807" cy="7851322"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="612321" y="1632857"/>
-          <a:ext cx="9930807" cy="7851322"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
@@ -847,7 +814,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -870,7 +837,7 @@
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
@@ -936,6 +903,44 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>395505</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="938893"/>
+          <a:ext cx="10056576" cy="8273143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1209,7 +1214,7 @@
   </sheetPr>
   <dimension ref="B2:C37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -1496,7 +1501,7 @@
   </sheetPr>
   <dimension ref="B1:G4"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Z16" sqref="Z16"/>
     </sheetView>
